--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 250/S&P500_returns_compared_trimester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 250/S&P500_returns_compared_trimester.xlsx
@@ -501,13 +501,13 @@
         <v>0.02539780777448591</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02845529298853767</v>
+        <v>0.0298924112847421</v>
       </c>
       <c r="H2" t="n">
-        <v>12.03838237221104</v>
+        <v>17.69681678893313</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.012985537659876</v>
+        <v>-19.70650843747305</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.02850917715789084</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02702971406723498</v>
+        <v>0.02581848981827177</v>
       </c>
       <c r="H3" t="n">
-        <v>-5.189427539287533</v>
+        <v>-9.437969130842959</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.03688642016201375</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03882781324162555</v>
+        <v>0.03361156652041087</v>
       </c>
       <c r="H4" t="n">
-        <v>5.263164793668632</v>
+        <v>-8.878209452744297</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.03720152667980871</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03789846207356554</v>
+        <v>0.04299169512965897</v>
       </c>
       <c r="H5" t="n">
-        <v>1.873405357138475</v>
+        <v>15.5643301945264</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.006559799104029466</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007415695674615822</v>
+        <v>0.0144271352379377</v>
       </c>
       <c r="H6" t="n">
-        <v>13.04760339475347</v>
+        <v>119.9325773418212</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.0115941307058423</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0183004661149544</v>
+        <v>0.0176108620598749</v>
       </c>
       <c r="H7" t="n">
-        <v>57.84250306694203</v>
+        <v>51.89463105673598</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.05022737750499624</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04071100506885494</v>
+        <v>-0.04068472272052514</v>
       </c>
       <c r="H8" t="n">
-        <v>-18.94658433081577</v>
+        <v>18.99891106901186</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.04691588781839836</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04200483338438713</v>
+        <v>-0.04224725811037532</v>
       </c>
       <c r="H9" t="n">
-        <v>-10.46778535454961</v>
+        <v>9.95106332868373</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04134023671255897</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02520529842293106</v>
+        <v>-0.04393976854343776</v>
       </c>
       <c r="H10" t="n">
-        <v>-39.02962240350741</v>
+        <v>-6.288139685685589</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.04184362476160845</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03709602795495071</v>
+        <v>-0.02899498008175293</v>
       </c>
       <c r="H11" t="n">
-        <v>-11.34604574461642</v>
+        <v>30.70633759158494</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.04913332877268228</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.05203672568624113</v>
+        <v>-0.04846739033747164</v>
       </c>
       <c r="H12" t="n">
-        <v>5.909220861040283</v>
+        <v>1.355370075354836</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.05296564739060104</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.04695305145216587</v>
+        <v>-0.05936684776539538</v>
       </c>
       <c r="H13" t="n">
-        <v>-11.35187849984088</v>
+        <v>-12.08556996875347</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0742566594116762</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.07185396969315931</v>
+        <v>-0.06922253357812339</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.235655545984718</v>
+        <v>6.779359418316681</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08994896525467186</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.07007183881386871</v>
+        <v>-0.06732407088015528</v>
       </c>
       <c r="H15" t="n">
-        <v>-22.09822690514025</v>
+        <v>25.15303462408809</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.2928831391059319</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2774243527326968</v>
+        <v>-0.2897314034699939</v>
       </c>
       <c r="H16" t="n">
-        <v>-5.278141452739578</v>
+        <v>1.07610688876087</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.2975985271063226</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2929061235332282</v>
+        <v>-0.2822138592616449</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.576756316209176</v>
+        <v>5.169604834496131</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1463090402526538</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1476434137629002</v>
+        <v>-0.1411654538045672</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9120239651235066</v>
+        <v>3.515562974922396</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1515576784841984</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1578596620550358</v>
+        <v>-0.1687972385222517</v>
       </c>
       <c r="H19" t="n">
-        <v>4.158142057774025</v>
+        <v>-11.37491693622815</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1760882198616668</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1628458323582957</v>
+        <v>0.1711232101495382</v>
       </c>
       <c r="H20" t="n">
-        <v>-7.520314257123053</v>
+        <v>-2.819614915767257</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1797092892219813</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1763102822864091</v>
+        <v>0.17592661993341</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.89139189759615</v>
+        <v>-2.104882449286664</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1310699299328742</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1279331042159047</v>
+        <v>0.1284450427287727</v>
       </c>
       <c r="H22" t="n">
-        <v>-2.39324589444427</v>
+        <v>-2.002661636765815</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1367006164594899</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1322510003011075</v>
+        <v>0.1239135972520095</v>
       </c>
       <c r="H23" t="n">
-        <v>-3.25500811453984</v>
+        <v>-9.354031853447948</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.08818548087357189</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08890879913113892</v>
+        <v>0.08591127426074274</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8202237493085932</v>
+        <v>-2.578890073854211</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.09282685644658613</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09240888686062967</v>
+        <v>0.08959491717483872</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.4502679525692651</v>
+        <v>-3.481685576207257</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0633831948684522</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06200159652110934</v>
+        <v>0.05849113633022966</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.179754981127537</v>
+        <v>-7.718226492646352</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.0571513088897921</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06210379413532752</v>
+        <v>0.06468725225697389</v>
       </c>
       <c r="H27" t="n">
-        <v>8.66556749397561</v>
+        <v>13.18595061700817</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1098855847014277</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1074032913379275</v>
+        <v>-0.1073448765961663</v>
       </c>
       <c r="H28" t="n">
-        <v>-2.25897998381215</v>
+        <v>2.312139587885716</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1125005700755154</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1093428885080901</v>
+        <v>-0.108322439898553</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.806813836859422</v>
+        <v>3.713874671175305</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1141038915889902</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1191787391944895</v>
+        <v>0.1153900383647566</v>
       </c>
       <c r="H30" t="n">
-        <v>4.447567506092811</v>
+        <v>1.127171701031183</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1173112250060583</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1140794636255466</v>
+        <v>0.1219427469951803</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.754861165540462</v>
+        <v>3.948063784077628</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09762696239513032</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09223128383556996</v>
+        <v>0.09797785208718707</v>
       </c>
       <c r="H32" t="n">
-        <v>-5.526832370059991</v>
+        <v>0.3594188361987332</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.09713843665228507</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09836866053620048</v>
+        <v>0.1042545124614074</v>
       </c>
       <c r="H33" t="n">
-        <v>1.266464569858276</v>
+        <v>7.325705513045171</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.0576776914251576</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06261076807835081</v>
+        <v>0.0596525226425981</v>
       </c>
       <c r="H34" t="n">
-        <v>8.552833047408555</v>
+        <v>3.423908219355545</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.05634466182785419</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06037942334094247</v>
+        <v>0.05996583328751497</v>
       </c>
       <c r="H35" t="n">
-        <v>7.160858512941999</v>
+        <v>6.42682259896117</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01940027443471792</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01654933181215281</v>
+        <v>0.01371695874929196</v>
       </c>
       <c r="H36" t="n">
-        <v>-14.69537264618887</v>
+        <v>-29.29502726649751</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01690084256368003</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01621190151148379</v>
+        <v>0.01055998819728269</v>
       </c>
       <c r="H37" t="n">
-        <v>-4.076371042451905</v>
+        <v>-37.51797783161331</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1957330145089376</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2017407715391383</v>
+        <v>-0.2009513666491544</v>
       </c>
       <c r="H38" t="n">
-        <v>3.069363155353834</v>
+        <v>-2.666056185416033</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2031833805928625</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2030962060635952</v>
+        <v>-0.2095288035903619</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.04290436009723247</v>
+        <v>-3.123002963620495</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1479574051690894</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1551459961672166</v>
+        <v>0.1535825442241708</v>
       </c>
       <c r="H40" t="n">
-        <v>4.858554385913915</v>
+        <v>3.801863819288304</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1596092205391409</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1633424515145443</v>
+        <v>0.1560485428991306</v>
       </c>
       <c r="H41" t="n">
-        <v>2.338982022963957</v>
+        <v>-2.230872143841542</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1078882482502147</v>
       </c>
       <c r="G42" t="n">
-        <v>0.109152017142651</v>
+        <v>0.1105008545676055</v>
       </c>
       <c r="H42" t="n">
-        <v>1.171368441820807</v>
+        <v>2.421585631209466</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1119319091195349</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1117025455126949</v>
+        <v>0.1143464153460286</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.2049135127276905</v>
+        <v>2.157120561497065</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.04121367944339337</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.04010631626931947</v>
+        <v>-0.04095827153817406</v>
       </c>
       <c r="H44" t="n">
-        <v>-2.686882581291603</v>
+        <v>0.6197163385281068</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.04162983658448242</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.04974744453048945</v>
+        <v>-0.04732922501042596</v>
       </c>
       <c r="H45" t="n">
-        <v>19.4994951025892</v>
+        <v>-13.6906336741855</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.0430263323809211</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04486918268479296</v>
+        <v>0.04348524430309394</v>
       </c>
       <c r="H46" t="n">
-        <v>4.283075507242216</v>
+        <v>1.066583872661965</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04940932482023017</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0470766037169765</v>
+        <v>0.04680835128362337</v>
       </c>
       <c r="H47" t="n">
-        <v>-4.72121631238839</v>
+        <v>-5.264134950376526</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01240329972439864</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01676043110132793</v>
+        <v>0.01964771312953107</v>
       </c>
       <c r="H48" t="n">
-        <v>35.12880825058464</v>
+        <v>58.40714621192199</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.01891279586603259</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01906480094595598</v>
+        <v>0.02186774910639918</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8037155426416481</v>
+        <v>15.62409524904613</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.08331112177919647</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0866619470793094</v>
+        <v>0.08531228951933846</v>
       </c>
       <c r="H50" t="n">
-        <v>4.022062395215105</v>
+        <v>2.402041525074863</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.08759658603381766</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08418910190577789</v>
+        <v>0.08713437149285594</v>
       </c>
       <c r="H51" t="n">
-        <v>-3.889973664868945</v>
+        <v>-0.5276627342340477</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.0359237617239527</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03504480960134054</v>
+        <v>0.03311562289225279</v>
       </c>
       <c r="H52" t="n">
-        <v>-2.446715155740788</v>
+        <v>-7.816939810697897</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.03087780661820814</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0377298694293095</v>
+        <v>0.03779945967769512</v>
       </c>
       <c r="H53" t="n">
-        <v>22.19089877666636</v>
+        <v>22.41627180670726</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05972745123340827</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05943542064146818</v>
+        <v>0.05864559789807262</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.4889386469864077</v>
+        <v>-1.811316761379776</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06476717173310874</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06462120021131973</v>
+        <v>0.06113826046977449</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.2253788730972012</v>
+        <v>-5.603010238409349</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.07610167558905528</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07526388483303705</v>
+        <v>0.07760503790636177</v>
       </c>
       <c r="H56" t="n">
-        <v>-1.100883455631465</v>
+        <v>1.975465462054412</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07639715666827256</v>
       </c>
       <c r="G57" t="n">
-        <v>0.07700315191365019</v>
+        <v>0.07975022468771691</v>
       </c>
       <c r="H57" t="n">
-        <v>0.7932170146186872</v>
+        <v>4.388995828737257</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.04700484617669456</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04288464589963727</v>
+        <v>0.05001113930889614</v>
       </c>
       <c r="H58" t="n">
-        <v>-8.765479758340573</v>
+        <v>6.395708903930275</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.04422603393992752</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04645469994088783</v>
+        <v>0.04444843381820557</v>
       </c>
       <c r="H59" t="n">
-        <v>5.039262629761274</v>
+        <v>0.5028709528422391</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04072415366766116</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04358133969133936</v>
+        <v>0.04031004144029771</v>
       </c>
       <c r="H60" t="n">
-        <v>7.015949421551938</v>
+        <v>-1.016871291526171</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.04066648323854097</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04186221164464608</v>
+        <v>0.04498384990887927</v>
       </c>
       <c r="H61" t="n">
-        <v>2.94032901515291</v>
+        <v>10.61652330498692</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.02683200843546289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.0259379058143038</v>
+        <v>-0.02804319455647996</v>
       </c>
       <c r="H62" t="n">
-        <v>-3.332223986548049</v>
+        <v>-4.513959974074435</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.03157010675155404</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.02822536803949706</v>
+        <v>-0.02617026457794834</v>
       </c>
       <c r="H63" t="n">
-        <v>-10.5946385876327</v>
+        <v>17.1042886110605</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.08731276108070297</v>
       </c>
       <c r="G64" t="n">
-        <v>0.08468385260232497</v>
+        <v>0.08485251342466067</v>
       </c>
       <c r="H64" t="n">
-        <v>-3.01090979810856</v>
+        <v>-2.817741216279144</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.0862402470971773</v>
       </c>
       <c r="G65" t="n">
-        <v>0.08321537374518935</v>
+        <v>0.0850090769787981</v>
       </c>
       <c r="H65" t="n">
-        <v>-3.507496156150226</v>
+        <v>-1.427605044999339</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.02139393255741548</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01645023191949557</v>
+        <v>0.01777781237542576</v>
       </c>
       <c r="H66" t="n">
-        <v>-23.10795654166136</v>
+        <v>-16.90255016129007</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.0209864019911485</v>
       </c>
       <c r="G67" t="n">
-        <v>0.02361492629781496</v>
+        <v>0.02266812493980616</v>
       </c>
       <c r="H67" t="n">
-        <v>12.52489258413664</v>
+        <v>8.013393383806184</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0002099060747878827</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.000352831978093704</v>
+        <v>-0.005373699409718126</v>
       </c>
       <c r="H68" t="n">
-        <v>-268.0904082696286</v>
+        <v>-2660.04949601789</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.002403795222242257</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.001434112593331952</v>
+        <v>0.004452586508648417</v>
       </c>
       <c r="H69" t="n">
-        <v>-159.6603479390484</v>
+        <v>85.23152336142222</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06800970974818013</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.074768971417241</v>
+        <v>-0.07538945065017828</v>
       </c>
       <c r="H70" t="n">
-        <v>9.938671542767077</v>
+        <v>-10.85101072967839</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.07493390691371363</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.06449657079367968</v>
+        <v>-0.07313545628829742</v>
       </c>
       <c r="H71" t="n">
-        <v>-13.92872272368307</v>
+        <v>2.400049189330442</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.04705509918424316</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04764860514283281</v>
+        <v>0.04890856060968016</v>
       </c>
       <c r="H72" t="n">
-        <v>1.26129998422869</v>
+        <v>3.938917264162622</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.05135734494488805</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05155769244703146</v>
+        <v>0.05318983983988707</v>
       </c>
       <c r="H73" t="n">
-        <v>0.3901048669054214</v>
+        <v>3.568126228031233</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.04317079645533341</v>
       </c>
       <c r="G74" t="n">
-        <v>0.05311684122256589</v>
+        <v>0.04819838946758965</v>
       </c>
       <c r="H74" t="n">
-        <v>23.03882620632941</v>
+        <v>11.64581945449636</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.04545429362859869</v>
       </c>
       <c r="G75" t="n">
-        <v>0.04542361862433395</v>
+        <v>0.04791018482965337</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.06748538326296927</v>
+        <v>5.402990575811076</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.03098560570893229</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03589071130612783</v>
+        <v>0.02962277762881874</v>
       </c>
       <c r="H76" t="n">
-        <v>15.8302717825572</v>
+        <v>-4.398261866866412</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.02938276534215063</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03308972871409598</v>
+        <v>0.03038583050889751</v>
       </c>
       <c r="H77" t="n">
-        <v>12.6161146807635</v>
+        <v>3.413787487551242</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.03446971281615122</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02844645565279488</v>
+        <v>0.0345678211610775</v>
       </c>
       <c r="H78" t="n">
-        <v>-17.47405670445293</v>
+        <v>0.2846218808075032</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.03210438352746564</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03538022014498684</v>
+        <v>0.03354174289287368</v>
       </c>
       <c r="H79" t="n">
-        <v>10.20370509441081</v>
+        <v>4.477143640457572</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.02946645069203743</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03865730152479357</v>
+        <v>0.03489100490740916</v>
       </c>
       <c r="H80" t="n">
-        <v>31.19089885922276</v>
+        <v>18.40925557022577</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03483623078952545</v>
       </c>
       <c r="G81" t="n">
-        <v>0.04158323524547702</v>
+        <v>0.04069135159708307</v>
       </c>
       <c r="H81" t="n">
-        <v>19.36777975985926</v>
+        <v>16.80756119378489</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.04915099280235283</v>
       </c>
       <c r="G82" t="n">
-        <v>0.04653568414113439</v>
+        <v>0.04909848809997502</v>
       </c>
       <c r="H82" t="n">
-        <v>-5.320968127205855</v>
+        <v>-0.1068232794176584</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.05158573348780684</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04801226845094297</v>
+        <v>0.05543011015803036</v>
       </c>
       <c r="H83" t="n">
-        <v>-6.927235100201726</v>
+        <v>7.452402845318082</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03674808205395363</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03643762331114705</v>
+        <v>0.0353028554160878</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.8448297855402723</v>
+        <v>-3.932794739447749</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.0325927857683894</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03753657134763498</v>
+        <v>0.03430669832115116</v>
       </c>
       <c r="H85" t="n">
-        <v>15.16834312469352</v>
+        <v>5.258564164907995</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.02684374630159742</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03196257391449817</v>
+        <v>0.02517023122569102</v>
       </c>
       <c r="H86" t="n">
-        <v>19.06897627249645</v>
+        <v>-6.23428286463433</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.03362548835019527</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02978653029433793</v>
+        <v>0.03206316968794291</v>
       </c>
       <c r="H87" t="n">
-        <v>-11.41680981961128</v>
+        <v>-4.646233375056052</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.0556764454163631</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0524518010545056</v>
+        <v>0.0554342045048638</v>
       </c>
       <c r="H88" t="n">
-        <v>-5.791756887033219</v>
+        <v>-0.4350868840274609</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.05379100486134444</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0488956088885743</v>
+        <v>0.05991423244725517</v>
       </c>
       <c r="H89" t="n">
-        <v>-9.100770631425949</v>
+        <v>11.3833671664889</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02393890867148892</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.01439434709171848</v>
+        <v>-0.02082801946378396</v>
       </c>
       <c r="H90" t="n">
-        <v>-39.87049581394639</v>
+        <v>12.99511707235847</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.02071924697958748</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01812520725508603</v>
+        <v>-0.01596191742546472</v>
       </c>
       <c r="H91" t="n">
-        <v>-12.51995174852198</v>
+        <v>22.96091918209991</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03963729108941371</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04051502460457498</v>
+        <v>0.05055596951414551</v>
       </c>
       <c r="H92" t="n">
-        <v>2.214413475384271</v>
+        <v>27.54647990474795</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04830041776286424</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04770204553924485</v>
+        <v>0.03883286580727774</v>
       </c>
       <c r="H93" t="n">
-        <v>-1.238855172137769</v>
+        <v>-19.60138730490573</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.04450335749651464</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05299937002771749</v>
+        <v>0.05025049859247981</v>
       </c>
       <c r="H94" t="n">
-        <v>19.09072260866662</v>
+        <v>12.91394946193727</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.04477146600756626</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04992754449816174</v>
+        <v>0.05235732890617224</v>
       </c>
       <c r="H95" t="n">
-        <v>11.51643881780443</v>
+        <v>16.94352134308934</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.146963195107255</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1427985108153229</v>
+        <v>-0.1376280955461608</v>
       </c>
       <c r="H96" t="n">
-        <v>-2.833828081168669</v>
+        <v>6.35199823621239</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.150817549107657</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.150086018835915</v>
+        <v>-0.1489355870354129</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.4850432035729577</v>
+        <v>1.247840243644789</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1423101300395017</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1436272050328832</v>
+        <v>0.1399237225236492</v>
       </c>
       <c r="H98" t="n">
-        <v>0.9254963037528886</v>
+        <v>-1.676906285722648</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1470608929146514</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1450598151504826</v>
+        <v>0.147839027758313</v>
       </c>
       <c r="H99" t="n">
-        <v>-1.360713731916582</v>
+        <v>0.5291242479489083</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02325180968686057</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02238899574578268</v>
+        <v>0.02422506600970733</v>
       </c>
       <c r="H100" t="n">
-        <v>-3.710738874512033</v>
+        <v>4.185722900513582</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.0273166824388394</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02774907933557728</v>
+        <v>0.02419296240444075</v>
       </c>
       <c r="H101" t="n">
-        <v>1.582904138180006</v>
+        <v>-11.43521011891723</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.007741144401112737</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.009551549588033533</v>
+        <v>-0.01241945670283503</v>
       </c>
       <c r="H102" t="n">
-        <v>23.38679002888206</v>
+        <v>-60.43437584047415</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00766063640908223</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.006180453230446721</v>
+        <v>-0.01071303380442297</v>
       </c>
       <c r="H103" t="n">
-        <v>-19.3219348836429</v>
+        <v>-39.84521953974875</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.0727885622270989</v>
       </c>
       <c r="G104" t="n">
-        <v>0.07574724720129436</v>
+        <v>0.07473185077561904</v>
       </c>
       <c r="H104" t="n">
-        <v>4.064766336453279</v>
+        <v>2.669771855717008</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.07478882140984003</v>
       </c>
       <c r="G105" t="n">
-        <v>0.07801826349185458</v>
+        <v>0.07719910953200659</v>
       </c>
       <c r="H105" t="n">
-        <v>4.318081260189035</v>
+        <v>3.222791958384093</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3466071028434384</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.3383501173153533</v>
+        <v>-0.3501029623546706</v>
       </c>
       <c r="H106" t="n">
-        <v>-2.382232060551492</v>
+        <v>-1.008594308239345</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3762531854192955</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.3566439892068018</v>
+        <v>-0.3507257448843227</v>
       </c>
       <c r="H107" t="n">
-        <v>-5.211702378184852</v>
+        <v>6.784644362950733</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.2249197822222643</v>
       </c>
       <c r="G108" t="n">
-        <v>0.22418669642236</v>
+        <v>0.2314021097611336</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.3259321135123068</v>
+        <v>2.882061984420516</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.2226452381003289</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2331152861961098</v>
+        <v>0.229778238941673</v>
       </c>
       <c r="H109" t="n">
-        <v>4.702569965167122</v>
+        <v>3.203751808125273</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.05862760492876468</v>
       </c>
       <c r="G110" t="n">
-        <v>0.05896047914390112</v>
+        <v>0.05659309862442095</v>
       </c>
       <c r="H110" t="n">
-        <v>0.5677772706916788</v>
+        <v>-3.470219032170524</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.05744215554139705</v>
       </c>
       <c r="G111" t="n">
-        <v>0.05308144332677994</v>
+        <v>0.06168200149963151</v>
       </c>
       <c r="H111" t="n">
-        <v>-7.591484291487729</v>
+        <v>7.381070432113081</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.1283068976581735</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1388865596843981</v>
+        <v>0.1386752716542871</v>
       </c>
       <c r="H112" t="n">
-        <v>8.245591016010854</v>
+        <v>8.080917070987359</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,10 +4166,10 @@
         <v>0.1309363224202389</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1416067092595849</v>
+        <v>0.1417292363286262</v>
       </c>
       <c r="H113" t="n">
-        <v>8.149294742752517</v>
+        <v>8.242872343510262</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 250/S&P500_returns_compared_trimester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 250/S&P500_returns_compared_trimester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.02539780777448591</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0298924112847421</v>
+        <v>0.02471288756037136</v>
       </c>
       <c r="H2" t="n">
-        <v>17.69681678893313</v>
+        <v>-2.696769029028589</v>
       </c>
       <c r="I2" t="n">
-        <v>-19.70650843747305</v>
+        <v>-2.291103815027472</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.02850917715789084</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02581848981827177</v>
+        <v>0.02677507530771122</v>
       </c>
       <c r="H3" t="n">
-        <v>-9.437969130842959</v>
+        <v>-6.082609261487053</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.03688642016201375</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03361156652041087</v>
+        <v>0.03676184373805563</v>
       </c>
       <c r="H4" t="n">
-        <v>-8.878209452744297</v>
+        <v>-0.3377297753779065</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.03720152667980871</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04299169512965897</v>
+        <v>0.04045148716395314</v>
       </c>
       <c r="H5" t="n">
-        <v>15.5643301945264</v>
+        <v>8.736094386976756</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.006559799104029466</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0144271352379377</v>
+        <v>0.01231501254491983</v>
       </c>
       <c r="H6" t="n">
-        <v>119.9325773418212</v>
+        <v>87.73459902689898</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.0115941307058423</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0176108620598749</v>
+        <v>0.01685819193467857</v>
       </c>
       <c r="H7" t="n">
-        <v>51.89463105673598</v>
+        <v>45.40281080481264</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.05022737750499624</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04068472272052514</v>
+        <v>-0.04092567863123855</v>
       </c>
       <c r="H8" t="n">
-        <v>18.99891106901186</v>
+        <v>18.51918084481403</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.04691588781839836</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04224725811037532</v>
+        <v>-0.04980955275476989</v>
       </c>
       <c r="H9" t="n">
-        <v>9.95106332868373</v>
+        <v>-6.167771880545686</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04134023671255897</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04393976854343776</v>
+        <v>-0.03562838414087731</v>
       </c>
       <c r="H10" t="n">
-        <v>-6.288139685685589</v>
+        <v>13.81669053178505</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.04184362476160845</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.02899498008175293</v>
+        <v>-0.03618991381978979</v>
       </c>
       <c r="H11" t="n">
-        <v>30.70633759158494</v>
+        <v>13.51152289991365</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.04913332877268228</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04846739033747164</v>
+        <v>-0.0546454078790822</v>
       </c>
       <c r="H12" t="n">
-        <v>1.355370075354836</v>
+        <v>-11.21861523346366</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.05296564739060104</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05936684776539538</v>
+        <v>-0.04948661647610882</v>
       </c>
       <c r="H13" t="n">
-        <v>-12.08556996875347</v>
+        <v>6.568466706043862</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0742566594116762</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.06922253357812339</v>
+        <v>-0.06608538132559595</v>
       </c>
       <c r="H14" t="n">
-        <v>6.779359418316681</v>
+        <v>11.00410138406439</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08994896525467186</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.06732407088015528</v>
+        <v>-0.07726330283555154</v>
       </c>
       <c r="H15" t="n">
-        <v>25.15303462408809</v>
+        <v>14.10317771105371</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.2928831391059319</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2897314034699939</v>
+        <v>-0.2884692219952091</v>
       </c>
       <c r="H16" t="n">
-        <v>1.07610688876087</v>
+        <v>1.50705743054958</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.2975985271063226</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2822138592616449</v>
+        <v>-0.2928216664163967</v>
       </c>
       <c r="H17" t="n">
-        <v>5.169604834496131</v>
+        <v>1.605135864203831</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1463090402526538</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1411654538045672</v>
+        <v>-0.1537529618158514</v>
       </c>
       <c r="H18" t="n">
-        <v>3.515562974922396</v>
+        <v>-5.087806980582391</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1515576784841984</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1687972385222517</v>
+        <v>-0.1631510028146535</v>
       </c>
       <c r="H19" t="n">
-        <v>-11.37491693622815</v>
+        <v>-7.64944702664064</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1760882198616668</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1711232101495382</v>
+        <v>0.1628764597080179</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.819614915767257</v>
+        <v>-7.502921072192079</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1797092892219813</v>
       </c>
       <c r="G21" t="n">
-        <v>0.17592661993341</v>
+        <v>0.1837934310589031</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.104882449286664</v>
+        <v>2.272638133845709</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1310699299328742</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1284450427287727</v>
+        <v>0.1338187178067926</v>
       </c>
       <c r="H22" t="n">
-        <v>-2.002661636765815</v>
+        <v>2.097191838987149</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1367006164594899</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1239135972520095</v>
+        <v>0.1369945971074595</v>
       </c>
       <c r="H23" t="n">
-        <v>-9.354031853447948</v>
+        <v>0.2150543688709264</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.08818548087357189</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08591127426074274</v>
+        <v>0.08788458367145498</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.578890073854211</v>
+        <v>-0.3412094588998154</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.09282685644658613</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08959491717483872</v>
+        <v>0.0872389146698891</v>
       </c>
       <c r="H25" t="n">
-        <v>-3.481685576207257</v>
+        <v>-6.019746860556896</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0633831948684522</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05849113633022966</v>
+        <v>0.06391579594600991</v>
       </c>
       <c r="H26" t="n">
-        <v>-7.718226492646352</v>
+        <v>0.8402875220523101</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.0571513088897921</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06468725225697389</v>
+        <v>0.06288206962709071</v>
       </c>
       <c r="H27" t="n">
-        <v>13.18595061700817</v>
+        <v>10.02734818960935</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1098855847014277</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1073448765961663</v>
+        <v>-0.1043934716088858</v>
       </c>
       <c r="H28" t="n">
-        <v>2.312139587885716</v>
+        <v>4.998028729122775</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1125005700755154</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.108322439898553</v>
+        <v>-0.1081448745579246</v>
       </c>
       <c r="H29" t="n">
-        <v>3.713874671175305</v>
+        <v>3.87170972970809</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1141038915889902</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1153900383647566</v>
+        <v>0.1195498980080038</v>
       </c>
       <c r="H30" t="n">
-        <v>1.127171701031183</v>
+        <v>4.77284897401262</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1173112250060583</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1219427469951803</v>
+        <v>0.122745304822473</v>
       </c>
       <c r="H31" t="n">
-        <v>3.948063784077628</v>
+        <v>4.632190837777098</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09762696239513032</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09797785208718707</v>
+        <v>0.09927233420701936</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3594188361987332</v>
+        <v>1.685366185244662</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.09713843665228507</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1042545124614074</v>
+        <v>0.1002099493196567</v>
       </c>
       <c r="H33" t="n">
-        <v>7.325705513045171</v>
+        <v>3.161995161983467</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.0576776914251576</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0596525226425981</v>
+        <v>0.06112501997125235</v>
       </c>
       <c r="H34" t="n">
-        <v>3.423908219355545</v>
+        <v>5.976883715202082</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.05634466182785419</v>
       </c>
       <c r="G35" t="n">
-        <v>0.05996583328751497</v>
+        <v>0.05832294006952327</v>
       </c>
       <c r="H35" t="n">
-        <v>6.42682259896117</v>
+        <v>3.511030464098218</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01940027443471792</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01371695874929196</v>
+        <v>0.01795176989011898</v>
       </c>
       <c r="H36" t="n">
-        <v>-29.29502726649751</v>
+        <v>-7.466412650363107</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01690084256368003</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01055998819728269</v>
+        <v>0.0212022837842147</v>
       </c>
       <c r="H37" t="n">
-        <v>-37.51797783161331</v>
+        <v>25.45104603115162</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1957330145089376</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2009513666491544</v>
+        <v>-0.1990930808141035</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.666056185416033</v>
+        <v>-1.716657924875769</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2031833805928625</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2095288035903619</v>
+        <v>-0.200110280215802</v>
       </c>
       <c r="H39" t="n">
-        <v>-3.123002963620495</v>
+        <v>1.512476250810284</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1479574051690894</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1535825442241708</v>
+        <v>0.1568559790136108</v>
       </c>
       <c r="H40" t="n">
-        <v>3.801863819288304</v>
+        <v>6.014280822478542</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1596092205391409</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1560485428991306</v>
+        <v>0.160021784698894</v>
       </c>
       <c r="H41" t="n">
-        <v>-2.230872143841542</v>
+        <v>0.2584839136232301</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1078882482502147</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1105008545676055</v>
+        <v>0.1042868078150783</v>
       </c>
       <c r="H42" t="n">
-        <v>2.421585631209466</v>
+        <v>-3.338121151790255</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1119319091195349</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1143464153460286</v>
+        <v>0.1106911844390165</v>
       </c>
       <c r="H43" t="n">
-        <v>2.157120561497065</v>
+        <v>-1.108463788635467</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.04121367944339337</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.04095827153817406</v>
+        <v>-0.04606601434751811</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6197163385281068</v>
+        <v>-11.77360276892865</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.04162983658448242</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.04732922501042596</v>
+        <v>-0.04360704092643363</v>
       </c>
       <c r="H45" t="n">
-        <v>-13.6906336741855</v>
+        <v>-4.749488598012464</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.0430263323809211</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04348524430309394</v>
+        <v>0.04906593156869454</v>
       </c>
       <c r="H46" t="n">
-        <v>1.066583872661965</v>
+        <v>14.03698352512041</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04940932482023017</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04680835128362337</v>
+        <v>0.04812446952500471</v>
       </c>
       <c r="H47" t="n">
-        <v>-5.264134950376526</v>
+        <v>-2.600430788925478</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01240329972439864</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01964771312953107</v>
+        <v>0.01767151147468952</v>
       </c>
       <c r="H48" t="n">
-        <v>58.40714621192199</v>
+        <v>42.47427593745667</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.01891279586603259</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02186774910639918</v>
+        <v>0.02276979110431785</v>
       </c>
       <c r="H49" t="n">
-        <v>15.62409524904613</v>
+        <v>20.39357515200823</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.08331112177919647</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08531228951933846</v>
+        <v>0.0838180153237621</v>
       </c>
       <c r="H50" t="n">
-        <v>2.402041525074863</v>
+        <v>0.6084344247687214</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.08759658603381766</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08713437149285594</v>
+        <v>0.08332969129240417</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.5276627342340477</v>
+        <v>-4.87107424456726</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.0359237617239527</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03311562289225279</v>
+        <v>0.03057110685074275</v>
       </c>
       <c r="H52" t="n">
-        <v>-7.816939810697897</v>
+        <v>-14.90004001903005</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.03087780661820814</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03779945967769512</v>
+        <v>0.03855095792389788</v>
       </c>
       <c r="H53" t="n">
-        <v>22.41627180670726</v>
+        <v>24.85005298648708</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05972745123340827</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05864559789807262</v>
+        <v>0.06129719305288581</v>
       </c>
       <c r="H54" t="n">
-        <v>-1.811316761379776</v>
+        <v>2.62817479577884</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06476717173310874</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06113826046977449</v>
+        <v>0.06511442906760641</v>
       </c>
       <c r="H55" t="n">
-        <v>-5.603010238409349</v>
+        <v>0.5361625731144172</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.07610167558905528</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07760503790636177</v>
+        <v>0.07336062979336207</v>
       </c>
       <c r="H56" t="n">
-        <v>1.975465462054412</v>
+        <v>-3.601820557138201</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07639715666827256</v>
       </c>
       <c r="G57" t="n">
-        <v>0.07975022468771691</v>
+        <v>0.08139019964627636</v>
       </c>
       <c r="H57" t="n">
-        <v>4.388995828737257</v>
+        <v>6.535639800947458</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.04700484617669456</v>
       </c>
       <c r="G58" t="n">
-        <v>0.05001113930889614</v>
+        <v>0.04923382544659468</v>
       </c>
       <c r="H58" t="n">
-        <v>6.395708903930275</v>
+        <v>4.742020134522365</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.04422603393992752</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04444843381820557</v>
+        <v>0.04293569369785639</v>
       </c>
       <c r="H59" t="n">
-        <v>0.5028709528422391</v>
+        <v>-2.917603337038568</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04072415366766116</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04031004144029771</v>
+        <v>0.04062747885158607</v>
       </c>
       <c r="H60" t="n">
-        <v>-1.016871291526171</v>
+        <v>-0.2373893804252667</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.04066648323854097</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04498384990887927</v>
+        <v>0.04160719952358848</v>
       </c>
       <c r="H61" t="n">
-        <v>10.61652330498692</v>
+        <v>2.313247200475812</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.02683200843546289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.02804319455647996</v>
+        <v>-0.03069758836264088</v>
       </c>
       <c r="H62" t="n">
-        <v>-4.513959974074435</v>
+        <v>-14.40659925430329</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.03157010675155404</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.02617026457794834</v>
+        <v>-0.02763666318707503</v>
       </c>
       <c r="H63" t="n">
-        <v>17.1042886110605</v>
+        <v>12.45939266355311</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.08731276108070297</v>
       </c>
       <c r="G64" t="n">
-        <v>0.08485251342466067</v>
+        <v>0.0832834299681595</v>
       </c>
       <c r="H64" t="n">
-        <v>-2.817741216279144</v>
+        <v>-4.614824983966743</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.0862402470971773</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0850090769787981</v>
+        <v>0.08739235902926179</v>
       </c>
       <c r="H65" t="n">
-        <v>-1.427605044999339</v>
+        <v>1.33593301371953</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.02139393255741548</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01777781237542576</v>
+        <v>0.02031721624464366</v>
       </c>
       <c r="H66" t="n">
-        <v>-16.90255016129007</v>
+        <v>-5.032811568804417</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.0209864019911485</v>
       </c>
       <c r="G67" t="n">
-        <v>0.02266812493980616</v>
+        <v>0.02005259224548159</v>
       </c>
       <c r="H67" t="n">
-        <v>8.013393383806184</v>
+        <v>-4.449594294728383</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0002099060747878827</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.005373699409718126</v>
+        <v>-0.001244102735184085</v>
       </c>
       <c r="H68" t="n">
-        <v>-2660.04949601789</v>
+        <v>-692.694964374563</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.002403795222242257</v>
       </c>
       <c r="G69" t="n">
-        <v>0.004452586508648417</v>
+        <v>0.00205814475783707</v>
       </c>
       <c r="H69" t="n">
-        <v>85.23152336142222</v>
+        <v>-14.37936398270917</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06800970974818013</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.07538945065017828</v>
+        <v>-0.07020739222143807</v>
       </c>
       <c r="H70" t="n">
-        <v>-10.85101072967839</v>
+        <v>-3.231424573631189</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.07493390691371363</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07313545628829742</v>
+        <v>-0.06977620447107045</v>
       </c>
       <c r="H71" t="n">
-        <v>2.400049189330442</v>
+        <v>6.883002174946337</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.04705509918424316</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04890856060968016</v>
+        <v>0.04567405538385885</v>
       </c>
       <c r="H72" t="n">
-        <v>3.938917264162622</v>
+        <v>-2.934950354640335</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.05135734494488805</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05318983983988707</v>
+        <v>0.04962214674718692</v>
       </c>
       <c r="H73" t="n">
-        <v>3.568126228031233</v>
+        <v>-3.378675824389249</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.04317079645533341</v>
       </c>
       <c r="G74" t="n">
-        <v>0.04819838946758965</v>
+        <v>0.05293050837527358</v>
       </c>
       <c r="H74" t="n">
-        <v>11.64581945449636</v>
+        <v>22.60720839384568</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.04545429362859869</v>
       </c>
       <c r="G75" t="n">
-        <v>0.04791018482965337</v>
+        <v>0.04126135508827156</v>
       </c>
       <c r="H75" t="n">
-        <v>5.402990575811076</v>
+        <v>-9.224515894113539</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.03098560570893229</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02962277762881874</v>
+        <v>0.02846747236387025</v>
       </c>
       <c r="H76" t="n">
-        <v>-4.398261866866412</v>
+        <v>-8.12678431629346</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.02938276534215063</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03038583050889751</v>
+        <v>0.03327894393790226</v>
       </c>
       <c r="H77" t="n">
-        <v>3.413787487551242</v>
+        <v>13.26008137893823</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.03446971281615122</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0345678211610775</v>
+        <v>0.032786167116812</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2846218808075032</v>
+        <v>-4.884130332963997</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.03210438352746564</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03354174289287368</v>
+        <v>0.03241238879711736</v>
       </c>
       <c r="H79" t="n">
-        <v>4.477143640457572</v>
+        <v>0.9593869615599875</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.02946645069203743</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03489100490740916</v>
+        <v>0.0350287873902284</v>
       </c>
       <c r="H80" t="n">
-        <v>18.40925557022577</v>
+        <v>18.87684660879109</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03483623078952545</v>
       </c>
       <c r="G81" t="n">
-        <v>0.04069135159708307</v>
+        <v>0.03957039213170794</v>
       </c>
       <c r="H81" t="n">
-        <v>16.80756119378489</v>
+        <v>13.58976340117128</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.04915099280235283</v>
       </c>
       <c r="G82" t="n">
-        <v>0.04909848809997502</v>
+        <v>0.0521288782060646</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.1068232794176584</v>
+        <v>6.058647514377822</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.05158573348780684</v>
       </c>
       <c r="G83" t="n">
-        <v>0.05543011015803036</v>
+        <v>0.05267906459349356</v>
       </c>
       <c r="H83" t="n">
-        <v>7.452402845318082</v>
+        <v>2.119444721950395</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03674808205395363</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0353028554160878</v>
+        <v>0.03446093684924104</v>
       </c>
       <c r="H84" t="n">
-        <v>-3.932794739447749</v>
+        <v>-6.223849183080064</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.0325927857683894</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03430669832115116</v>
+        <v>0.03649225469013279</v>
       </c>
       <c r="H85" t="n">
-        <v>5.258564164907995</v>
+        <v>11.96420873457632</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.02684374630159742</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02517023122569102</v>
+        <v>0.0286640137248437</v>
       </c>
       <c r="H86" t="n">
-        <v>-6.23428286463433</v>
+        <v>6.780973873002076</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.03362548835019527</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03206316968794291</v>
+        <v>0.03010556699718824</v>
       </c>
       <c r="H87" t="n">
-        <v>-4.646233375056052</v>
+        <v>-10.46801556113784</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.0556764454163631</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0554342045048638</v>
+        <v>0.05785223683442783</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.4350868840274609</v>
+        <v>3.907920848383162</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.05379100486134444</v>
       </c>
       <c r="G89" t="n">
-        <v>0.05991423244725517</v>
+        <v>0.05683944372978959</v>
       </c>
       <c r="H89" t="n">
-        <v>11.3833671664889</v>
+        <v>5.667190780880618</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02393890867148892</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.02082801946378396</v>
+        <v>-0.0174051270970469</v>
       </c>
       <c r="H90" t="n">
-        <v>12.99511707235847</v>
+        <v>27.29356489932103</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.02071924697958748</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01596191742546472</v>
+        <v>-0.02194412485964619</v>
       </c>
       <c r="H91" t="n">
-        <v>22.96091918209991</v>
+        <v>-5.911787630435864</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03963729108941371</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05055596951414551</v>
+        <v>0.0475224461456317</v>
       </c>
       <c r="H92" t="n">
-        <v>27.54647990474795</v>
+        <v>19.8932743371152</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04830041776286424</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03883286580727774</v>
+        <v>0.046928654140243</v>
       </c>
       <c r="H93" t="n">
-        <v>-19.60138730490573</v>
+        <v>-2.840065751306864</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.04450335749651464</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05025049859247981</v>
+        <v>0.04781024157900163</v>
       </c>
       <c r="H94" t="n">
-        <v>12.91394946193727</v>
+        <v>7.430639548366592</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.04477146600756626</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05235732890617224</v>
+        <v>0.05610711050354973</v>
       </c>
       <c r="H95" t="n">
-        <v>16.94352134308934</v>
+        <v>25.3189039958347</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.146963195107255</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1376280955461608</v>
+        <v>-0.1435625750101215</v>
       </c>
       <c r="H96" t="n">
-        <v>6.35199823621239</v>
+        <v>2.313926350506797</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.150817549107657</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1489355870354129</v>
+        <v>-0.1446554073312381</v>
       </c>
       <c r="H97" t="n">
-        <v>1.247840243644789</v>
+        <v>4.085825431376164</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1423101300395017</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1399237225236492</v>
+        <v>0.1452703825523963</v>
       </c>
       <c r="H98" t="n">
-        <v>-1.676906285722648</v>
+        <v>2.080141808649125</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1470608929146514</v>
       </c>
       <c r="G99" t="n">
-        <v>0.147839027758313</v>
+        <v>0.1483337486747676</v>
       </c>
       <c r="H99" t="n">
-        <v>0.5291242479489083</v>
+        <v>0.8655297373006563</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02325180968686057</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02422506600970733</v>
+        <v>0.0236514256434532</v>
       </c>
       <c r="H100" t="n">
-        <v>4.185722900513582</v>
+        <v>1.718644535519532</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.0273166824388394</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02419296240444075</v>
+        <v>0.02898670269794294</v>
       </c>
       <c r="H101" t="n">
-        <v>-11.43521011891723</v>
+        <v>6.113554465636978</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.007741144401112737</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.01241945670283503</v>
+        <v>-0.006929057473948532</v>
       </c>
       <c r="H102" t="n">
-        <v>-60.43437584047415</v>
+        <v>10.49052808067335</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00766063640908223</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.01071303380442297</v>
+        <v>-0.01126552461334311</v>
       </c>
       <c r="H103" t="n">
-        <v>-39.84521953974875</v>
+        <v>-47.05729409095866</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.0727885622270989</v>
       </c>
       <c r="G104" t="n">
-        <v>0.07473185077561904</v>
+        <v>0.08084552775518485</v>
       </c>
       <c r="H104" t="n">
-        <v>2.669771855717008</v>
+        <v>11.06899941634837</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.07478882140984003</v>
       </c>
       <c r="G105" t="n">
-        <v>0.07719910953200659</v>
+        <v>0.07653813330326381</v>
       </c>
       <c r="H105" t="n">
-        <v>3.222791958384093</v>
+        <v>2.339001819319517</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3466071028434384</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.3501029623546706</v>
+        <v>-0.3500380528075695</v>
       </c>
       <c r="H106" t="n">
-        <v>-1.008594308239345</v>
+        <v>-0.9898671827509771</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3762531854192955</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.3507257448843227</v>
+        <v>-0.3575464607939884</v>
       </c>
       <c r="H107" t="n">
-        <v>6.784644362950733</v>
+        <v>4.971844850817773</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.2249197822222643</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2314021097611336</v>
+        <v>0.2241008769489311</v>
       </c>
       <c r="H108" t="n">
-        <v>2.882061984420516</v>
+        <v>-0.364087705066316</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.2226452381003289</v>
       </c>
       <c r="G109" t="n">
-        <v>0.229778238941673</v>
+        <v>0.2317862054143248</v>
       </c>
       <c r="H109" t="n">
-        <v>3.203751808125273</v>
+        <v>4.105619950369997</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.05862760492876468</v>
       </c>
       <c r="G110" t="n">
-        <v>0.05659309862442095</v>
+        <v>0.05923277281279334</v>
       </c>
       <c r="H110" t="n">
-        <v>-3.470219032170524</v>
+        <v>1.032223446214402</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.05744215554139705</v>
       </c>
       <c r="G111" t="n">
-        <v>0.06168200149963151</v>
+        <v>0.06045092458054969</v>
       </c>
       <c r="H111" t="n">
-        <v>7.381070432113081</v>
+        <v>5.23791109646695</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.1283068976581735</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1386752716542871</v>
+        <v>0.1375074399535877</v>
       </c>
       <c r="H112" t="n">
-        <v>8.080917070987359</v>
+        <v>7.170730851840607</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,14 +4166,14 @@
         <v>0.1309363224202389</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1417292363286262</v>
+        <v>0.1362635723419452</v>
       </c>
       <c r="H113" t="n">
-        <v>8.242872343510262</v>
+        <v>4.068580683523814</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>